--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_5_22.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_5_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1147605.757549372</v>
+        <v>1145348.735640289</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836235</v>
+        <v>6654055.582836238</v>
       </c>
     </row>
     <row r="8">
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>408.5560992395782</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,19 +707,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>88.37396379153448</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>17.1565667452055</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>190.2713935802968</v>
       </c>
     </row>
     <row r="5">
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>207.2096032800586</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>139.4133024787268</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,16 +1063,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>55.33451502181184</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>45.19995918853699</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>4.252601227923032</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>92.39306372366568</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,13 +1142,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>244.812853485957</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448612</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250816</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229327</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853696</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,22 +1339,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>187.1057118188693</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>229.5889480231533</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247654</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>20.81511337505079</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>163.6898441249706</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>84.22513300471201</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>113.5103646250813</v>
       </c>
     </row>
     <row r="17">
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1999,16 +1999,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>74.75769145492373</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004739</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>189.769025331442</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>186.6253512546799</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2178,7 +2178,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247654</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2245,10 +2245,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>91.38378273163826</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>209.5675193320705</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2336,7 +2336,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,16 +2473,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>68.59371373186727</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>74.75769145492352</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761693</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206847</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2573,7 +2573,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247882</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,10 +2679,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734097636</v>
       </c>
       <c r="S27" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T27" t="n">
         <v>190.7165703189231</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>163.6898441249713</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>35.19569619650086</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,10 +2916,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734097636</v>
       </c>
       <c r="S30" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T30" t="n">
         <v>190.7165703189231</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2959,10 +2959,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>248.580666350172</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>80.0752919097005</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3184,19 +3184,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>113.5103646250815</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
@@ -3241,7 +3241,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>61.69425125124529</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3320,7 +3320,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3427,16 +3427,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>147.5592177298064</v>
+        <v>91.4896202274941</v>
       </c>
       <c r="E37" t="n">
-        <v>145.3777073581632</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>137.5099805565988</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>87.87589738164205</v>
       </c>
       <c r="S37" t="n">
-        <v>188.7127700430359</v>
+        <v>188.7127700430366</v>
       </c>
       <c r="T37" t="n">
-        <v>218.4926939877632</v>
+        <v>218.4926939877639</v>
       </c>
       <c r="U37" t="n">
-        <v>285.1555829172069</v>
+        <v>285.1555829172076</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>251.0813880354227</v>
       </c>
       <c r="W37" t="n">
-        <v>285.466743048185</v>
+        <v>285.4667430481857</v>
       </c>
       <c r="X37" t="n">
-        <v>224.6534001006312</v>
+        <v>224.6534001006319</v>
       </c>
       <c r="Y37" t="n">
-        <v>217.5283980636888</v>
+        <v>217.5283980636895</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396201</v>
@@ -3667,19 +3667,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797661</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G40" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572905</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3791,7 +3791,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3904,16 +3904,16 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797661</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G43" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572919</v>
       </c>
       <c r="I43" t="n">
         <v>49.37728379124552</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -4141,19 +4141,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797661</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G46" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1031.077791139709</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="C2" t="n">
-        <v>1031.077791139709</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="D2" t="n">
-        <v>1031.077791139709</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E2" t="n">
-        <v>1031.077791139709</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F2" t="n">
-        <v>620.0918863501013</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4355,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2478.514423990285</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V2" t="n">
-        <v>2147.451536646714</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W2" t="n">
-        <v>1794.6828813766</v>
+        <v>1628.245633506517</v>
       </c>
       <c r="X2" t="n">
-        <v>1421.217123115521</v>
+        <v>1254.779875245437</v>
       </c>
       <c r="Y2" t="n">
-        <v>1031.077791139709</v>
+        <v>864.6405432696254</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4416,7 +4416,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>218.1627947174723</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610024</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V4" t="n">
-        <v>438.9553738610024</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="W4" t="n">
-        <v>438.9553738610024</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="X4" t="n">
-        <v>438.9553738610024</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.1627947174723</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1422.14692331494</v>
+        <v>1185.96319079745</v>
       </c>
       <c r="C5" t="n">
-        <v>1422.14692331494</v>
+        <v>1185.96319079745</v>
       </c>
       <c r="D5" t="n">
-        <v>1422.14692331494</v>
+        <v>827.6974921906992</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>827.6974921906992</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>416.7115874010917</v>
       </c>
       <c r="G5" t="n">
         <v>207.4089578252748</v>
@@ -4571,7 +4571,7 @@
         <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4607,10 +4607,10 @@
         <v>1949.568281034341</v>
       </c>
       <c r="X5" t="n">
-        <v>1808.746763379062</v>
+        <v>1576.102522773261</v>
       </c>
       <c r="Y5" t="n">
-        <v>1808.746763379062</v>
+        <v>1185.96319079745</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4644,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>438.7118141694738</v>
+        <v>268.535689181137</v>
       </c>
       <c r="C7" t="n">
-        <v>438.7118141694738</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="D7" t="n">
-        <v>438.7118141694738</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="E7" t="n">
-        <v>438.7118141694738</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F7" t="n">
-        <v>291.8218666715635</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G7" t="n">
-        <v>235.9284171545818</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545818</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
         <v>99.5995062532301</v>
@@ -4753,22 +4753,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="W7" t="n">
-        <v>438.7118141694738</v>
+        <v>496.5252400791543</v>
       </c>
       <c r="X7" t="n">
-        <v>438.7118141694738</v>
+        <v>268.535689181137</v>
       </c>
       <c r="Y7" t="n">
-        <v>438.7118141694738</v>
+        <v>268.535689181137</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1992.620445413574</v>
+        <v>1745.334734821698</v>
       </c>
       <c r="C8" t="n">
-        <v>1623.657928473162</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="D8" t="n">
-        <v>1265.392229866412</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E8" t="n">
-        <v>879.6039772681672</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F8" t="n">
-        <v>468.6180724785597</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>454.6946684171506</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036449</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733133</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224085</v>
+        <v>881.282427122408</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977176</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642691</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791254</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018224</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018224</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018224</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018224</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674653</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W8" t="n">
-        <v>2366.086203674653</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="X8" t="n">
-        <v>1992.620445413574</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="Y8" t="n">
-        <v>1992.620445413574</v>
+        <v>1838.661061815299</v>
       </c>
     </row>
     <row r="9">
@@ -4872,25 +4872,25 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036449</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204944</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.447464661593</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598701</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>249.7161456655658</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>249.7161456655658</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036449</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477912</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658212</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502504</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594906</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064349</v>
+        <v>513.8405610245973</v>
       </c>
       <c r="T10" t="n">
-        <v>539.1333157025265</v>
+        <v>513.8405610245973</v>
       </c>
       <c r="U10" t="n">
-        <v>539.1333157025265</v>
+        <v>513.8405610245973</v>
       </c>
       <c r="V10" t="n">
-        <v>539.1333157025265</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W10" t="n">
-        <v>249.7161456655658</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X10" t="n">
-        <v>249.7161456655658</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y10" t="n">
-        <v>249.7161456655658</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5018,73 +5018,73 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089254</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K11" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L11" t="n">
-        <v>1803.682313196074</v>
+        <v>1617.66584484778</v>
       </c>
       <c r="M11" t="n">
-        <v>2707.641918722172</v>
+        <v>2151.197749519704</v>
       </c>
       <c r="N11" t="n">
-        <v>3254.420735780954</v>
+        <v>3130.950021746351</v>
       </c>
       <c r="O11" t="n">
-        <v>3757.393206660291</v>
+        <v>4010.914672075806</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="12">
@@ -5094,34 +5094,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C12" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494852</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763703</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K12" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L12" t="n">
         <v>794.200663232024</v>
@@ -5139,7 +5139,7 @@
         <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R12" t="n">
         <v>2593.958107142067</v>
@@ -5148,16 +5148,16 @@
         <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U12" t="n">
         <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X12" t="n">
         <v>1346.568408282341</v>
@@ -5173,13 +5173,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>562.5269503710301</v>
+        <v>260.9043113423041</v>
       </c>
       <c r="C13" t="n">
-        <v>393.5907674431232</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D13" t="n">
-        <v>243.4741280307875</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E13" t="n">
         <v>95.56103444839442</v>
@@ -5200,10 +5200,10 @@
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927023</v>
       </c>
       <c r="M13" t="n">
         <v>1005.387693892251</v>
@@ -5218,31 +5218,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S13" t="n">
-        <v>1866.513008862231</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T13" t="n">
-        <v>1644.746393431757</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U13" t="n">
-        <v>1355.643526557401</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V13" t="n">
-        <v>1100.959038351514</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W13" t="n">
-        <v>811.5418683145533</v>
+        <v>709.6864413838516</v>
       </c>
       <c r="X13" t="n">
-        <v>583.552317416536</v>
+        <v>481.6968904858343</v>
       </c>
       <c r="Y13" t="n">
-        <v>583.552317416536</v>
+        <v>260.9043113423041</v>
       </c>
     </row>
     <row r="14">
@@ -5255,46 +5255,46 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>785.6651881176192</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L14" t="n">
-        <v>1586.925993846824</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M14" t="n">
-        <v>2120.457898518748</v>
+        <v>2183.715908442899</v>
       </c>
       <c r="N14" t="n">
-        <v>2667.236715577531</v>
+        <v>2730.494725501681</v>
       </c>
       <c r="O14" t="n">
-        <v>3547.201365906985</v>
+        <v>3610.459375831136</v>
       </c>
       <c r="P14" t="n">
-        <v>4260.556453353931</v>
+        <v>4323.814463278081</v>
       </c>
       <c r="Q14" t="n">
         <v>4719.034655862919</v>
@@ -5331,34 +5331,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G15" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L15" t="n">
         <v>794.200663232024</v>
@@ -5367,16 +5367,16 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
         <v>2593.958107142068</v>
@@ -5397,10 +5397,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="16">
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>771.7737936471273</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C16" t="n">
-        <v>686.6979017231758</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D16" t="n">
-        <v>536.5812623108401</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E16" t="n">
-        <v>388.668168728447</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
         <v>95.56103444839442</v>
@@ -5437,49 +5437,49 @@
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498441988</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482926949</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M16" t="n">
-        <v>1005.387693892244</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N16" t="n">
-        <v>1346.796070598108</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.125669518522</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P16" t="n">
-        <v>1878.733169952181</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104696</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104696</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1764.657581931522</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1764.657581931522</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U16" t="n">
-        <v>1764.657581931522</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V16" t="n">
-        <v>1509.973093725635</v>
+        <v>909.2731541783406</v>
       </c>
       <c r="W16" t="n">
-        <v>1220.555923688675</v>
+        <v>619.8559841413801</v>
       </c>
       <c r="X16" t="n">
-        <v>992.5663727906574</v>
+        <v>391.8664332433627</v>
       </c>
       <c r="Y16" t="n">
-        <v>771.7737936471273</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="17">
@@ -5495,16 +5495,16 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5516,25 +5516,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L17" t="n">
-        <v>1482.778354750621</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M17" t="n">
-        <v>2461.32865758045</v>
+        <v>2707.641918722172</v>
       </c>
       <c r="N17" t="n">
-        <v>3008.107474639232</v>
+        <v>3254.420735780954</v>
       </c>
       <c r="O17" t="n">
-        <v>3800.7228313225</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5568,37 +5568,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L18" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5610,22 +5610,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5647,13 +5647,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>243.4741280307877</v>
+        <v>171.0738540998325</v>
       </c>
       <c r="C19" t="n">
-        <v>243.4741280307877</v>
+        <v>171.0738540998325</v>
       </c>
       <c r="D19" t="n">
-        <v>243.4741280307876</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
         <v>95.56103444839442</v>
@@ -5671,52 +5671,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
         <v>344.6708498442063</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927022</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M19" t="n">
         <v>1005.387693892251</v>
       </c>
       <c r="N19" t="n">
-        <v>1346.796070598115</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
         <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689057</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1674.827124689057</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1385.7242578147</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V19" t="n">
-        <v>1131.039769608813</v>
+        <v>909.2731541783405</v>
       </c>
       <c r="W19" t="n">
-        <v>841.6225995718528</v>
+        <v>619.85598414138</v>
       </c>
       <c r="X19" t="n">
-        <v>613.6330486738353</v>
+        <v>391.8664332433626</v>
       </c>
       <c r="Y19" t="n">
-        <v>425.1225928610274</v>
+        <v>171.0738540998325</v>
       </c>
     </row>
     <row r="20">
@@ -5762,7 +5762,7 @@
         <v>2628.734306600802</v>
       </c>
       <c r="N20" t="n">
-        <v>3189.361480106701</v>
+        <v>3175.513123659584</v>
       </c>
       <c r="O20" t="n">
         <v>3692.333950986038</v>
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G21" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
@@ -5853,28 +5853,28 @@
         <v>2594.102460549551</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T21" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V21" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>482.6709267727771</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C22" t="n">
-        <v>482.6709267727771</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>482.6709267727771</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>334.7578331903838</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>187.8678856924735</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>187.8678856924735</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>187.8678856924735</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442061</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927021</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
         <v>1005.387693892251</v>
       </c>
       <c r="N22" t="n">
-        <v>1346.796070598115</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
         <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104702</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104702</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S22" t="n">
         <v>1764.657581931529</v>
       </c>
       <c r="T22" t="n">
-        <v>1764.657581931529</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U22" t="n">
-        <v>1475.554715057172</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V22" t="n">
-        <v>1220.870226851285</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W22" t="n">
-        <v>931.4530568143248</v>
+        <v>709.6864413838516</v>
       </c>
       <c r="X22" t="n">
-        <v>703.4635059163072</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y22" t="n">
-        <v>482.6709267727771</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="23">
@@ -5987,28 +5987,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>323.5285488293691</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>657.3479225192154</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1521.86673817257</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M23" t="n">
-        <v>2055.398642844494</v>
+        <v>2016.310259422546</v>
       </c>
       <c r="N23" t="n">
-        <v>2602.177459903276</v>
+        <v>2996.062531649192</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232731</v>
+        <v>3876.027181978647</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679677</v>
+        <v>4270.801548335825</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R23" t="n">
         <v>4778.05172241972</v>
@@ -6042,22 +6042,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
         <v>114.5683260468565</v>
@@ -6066,28 +6066,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
         <v>2593.958107142068</v>
@@ -6108,10 +6108,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6121,13 +6121,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>412.4103109586945</v>
+        <v>171.0738540998324</v>
       </c>
       <c r="C25" t="n">
-        <v>243.4741280307876</v>
+        <v>171.0738540998324</v>
       </c>
       <c r="D25" t="n">
-        <v>243.4741280307876</v>
+        <v>171.0738540998324</v>
       </c>
       <c r="E25" t="n">
         <v>95.56103444839442</v>
@@ -6145,13 +6145,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442061</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927022</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M25" t="n">
         <v>1005.387693892251</v>
@@ -6163,34 +6163,34 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P25" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104702</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104702</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>1542.890966501055</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U25" t="n">
-        <v>1253.788099626698</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V25" t="n">
-        <v>999.1036114208111</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W25" t="n">
-        <v>709.6864413838505</v>
+        <v>619.8559841413798</v>
       </c>
       <c r="X25" t="n">
-        <v>481.6968904858331</v>
+        <v>391.8664332433625</v>
       </c>
       <c r="Y25" t="n">
-        <v>481.6968904858331</v>
+        <v>171.0738540998324</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551623</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>443.8820807562835</v>
       </c>
       <c r="K26" t="n">
-        <v>785.6651881176194</v>
+        <v>1098.605412891583</v>
       </c>
       <c r="L26" t="n">
-        <v>1236.699401366028</v>
+        <v>1549.639626139992</v>
       </c>
       <c r="M26" t="n">
-        <v>2215.249704195857</v>
+        <v>2528.189928969821</v>
       </c>
       <c r="N26" t="n">
-        <v>3195.001976422504</v>
+        <v>3507.942201196468</v>
       </c>
       <c r="O26" t="n">
-        <v>3697.97444730184</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P26" t="n">
-        <v>4411.329534748787</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q26" t="n">
-        <v>4659.615896504469</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="27">
@@ -6279,43 +6279,43 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973197</v>
+        <v>970.592772497321</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216194</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549427</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494872</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763722</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089903</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468579</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M27" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O27" t="n">
         <v>2125.96131142685</v>
@@ -6324,31 +6324,31 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549554</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142069</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635549</v>
       </c>
       <c r="T27" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V27" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W27" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487876</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282343</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517389</v>
       </c>
     </row>
     <row r="28">
@@ -6358,43 +6358,43 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>300.0484256555951</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C28" t="n">
-        <v>131.1122427276882</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D28" t="n">
-        <v>131.1122427276882</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E28" t="n">
-        <v>131.1122427276882</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
-        <v>131.1122427276882</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
-        <v>131.1122427276882</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927025</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M28" t="n">
         <v>1005.387693892252</v>
       </c>
       <c r="N28" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O28" t="n">
         <v>1646.12566951853</v>
@@ -6409,25 +6409,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.65758193153</v>
+        <v>1764.657581931531</v>
       </c>
       <c r="T28" t="n">
         <v>1542.890966501056</v>
       </c>
       <c r="U28" t="n">
-        <v>1253.788099626699</v>
+        <v>1253.7880996267</v>
       </c>
       <c r="V28" t="n">
-        <v>999.1036114208126</v>
+        <v>999.1036114208131</v>
       </c>
       <c r="W28" t="n">
-        <v>709.6864413838522</v>
+        <v>709.6864413838523</v>
       </c>
       <c r="X28" t="n">
-        <v>481.6968904858348</v>
+        <v>481.696890485835</v>
       </c>
       <c r="Y28" t="n">
-        <v>481.6968904858348</v>
+        <v>260.9043113423049</v>
       </c>
     </row>
     <row r="29">
@@ -6449,49 +6449,49 @@
         <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551634</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074199</v>
+        <v>451.8458144277731</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972664</v>
+        <v>785.6651881176198</v>
       </c>
       <c r="L29" t="n">
-        <v>1482.778354750621</v>
+        <v>1650.184003770975</v>
       </c>
       <c r="M29" t="n">
-        <v>2439.038619608516</v>
+        <v>2628.734306600804</v>
       </c>
       <c r="N29" t="n">
-        <v>2985.817436667299</v>
+        <v>3297.750360443162</v>
       </c>
       <c r="O29" t="n">
-        <v>3865.782086996754</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P29" t="n">
-        <v>4260.556453353932</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.03465586292</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
         <v>4208.252829604875</v>
@@ -6516,49 +6516,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M30" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
@@ -6573,7 +6573,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6582,10 +6582,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>579.0900014994927</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C31" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D31" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>263.2638710736755</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927025</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M31" t="n">
         <v>1005.387693892252</v>
       </c>
       <c r="N31" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O31" t="n">
         <v>1646.12566951853</v>
       </c>
       <c r="P31" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.73316995219</v>
       </c>
       <c r="Q31" t="n">
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.657581931531</v>
       </c>
       <c r="T31" t="n">
-        <v>1674.827124689058</v>
+        <v>1542.890966501057</v>
       </c>
       <c r="U31" t="n">
-        <v>1385.724257814702</v>
+        <v>1253.7880996267</v>
       </c>
       <c r="V31" t="n">
-        <v>1131.039769608815</v>
+        <v>1002.69651745481</v>
       </c>
       <c r="W31" t="n">
-        <v>841.6225995718539</v>
+        <v>713.2793474178488</v>
       </c>
       <c r="X31" t="n">
-        <v>841.6225995718542</v>
+        <v>485.2897965198314</v>
       </c>
       <c r="Y31" t="n">
-        <v>760.7384663297324</v>
+        <v>264.4972173763014</v>
       </c>
     </row>
     <row r="32">
@@ -6677,52 +6677,52 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F32" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K32" t="n">
-        <v>806.1613418786371</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L32" t="n">
-        <v>1670.680157531992</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M32" t="n">
-        <v>2649.23046036182</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N32" t="n">
-        <v>3196.009277420603</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
         <v>4667.761053946815</v>
@@ -6731,19 +6731,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="33">
@@ -6753,37 +6753,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C33" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6795,34 +6795,34 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
       </c>
       <c r="W33" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>487.6897527103526</v>
+        <v>210.2179684131232</v>
       </c>
       <c r="C34" t="n">
-        <v>487.6897527103526</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D34" t="n">
-        <v>487.6897527103526</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E34" t="n">
-        <v>339.7766591279594</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F34" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G34" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
         <v>140.6836668953299</v>
@@ -6871,37 +6871,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P34" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S34" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T34" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U34" t="n">
-        <v>1480.573540994747</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V34" t="n">
-        <v>1225.889052788861</v>
+        <v>909.2731541783407</v>
       </c>
       <c r="W34" t="n">
-        <v>936.4718827519001</v>
+        <v>619.8559841413802</v>
       </c>
       <c r="X34" t="n">
-        <v>708.4823318538828</v>
+        <v>391.8664332433628</v>
       </c>
       <c r="Y34" t="n">
-        <v>487.6897527103526</v>
+        <v>391.8664332433628</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
         <v>1646.988141143014</v>
@@ -6935,25 +6935,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L35" t="n">
-        <v>1784.466183544591</v>
+        <v>1231.058905050226</v>
       </c>
       <c r="M35" t="n">
-        <v>2317.998088216516</v>
+        <v>2209.609207880054</v>
       </c>
       <c r="N35" t="n">
-        <v>3297.750360443163</v>
+        <v>3189.361480106701</v>
       </c>
       <c r="O35" t="n">
-        <v>3800.7228313225</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q35" t="n">
         <v>4653.975400188666</v>
@@ -6968,13 +6968,13 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
         <v>3150.95552873011</v>
@@ -6990,22 +6990,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H36" t="n">
         <v>114.5683260468565</v>
@@ -7014,40 +7014,40 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K36" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q36" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T36" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7056,10 +7056,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="37">
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>530.3558886348271</v>
+        <v>187.9747922539443</v>
       </c>
       <c r="C37" t="n">
-        <v>530.3558886348271</v>
+        <v>187.9747922539443</v>
       </c>
       <c r="D37" t="n">
-        <v>381.3061737562348</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E37" t="n">
-        <v>234.4600047075851</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F37" t="n">
-        <v>234.4600047075851</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G37" t="n">
         <v>95.56103444839442</v>
@@ -7093,52 +7093,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>141.7293596308519</v>
+        <v>141.7293596308512</v>
       </c>
       <c r="K37" t="n">
-        <v>346.7622353152502</v>
+        <v>346.7622353152488</v>
       </c>
       <c r="L37" t="n">
-        <v>664.3677264992682</v>
+        <v>664.3677264992662</v>
       </c>
       <c r="M37" t="n">
-        <v>1009.570464834339</v>
+        <v>1009.570464834336</v>
       </c>
       <c r="N37" t="n">
-        <v>1352.024534275726</v>
+        <v>1352.024534275722</v>
       </c>
       <c r="O37" t="n">
-        <v>1652.399825931661</v>
+        <v>1652.399825931657</v>
       </c>
       <c r="P37" t="n">
-        <v>1886.053019100842</v>
+        <v>1886.053019100837</v>
       </c>
       <c r="Q37" t="n">
-        <v>1964.709007988879</v>
+        <v>1964.709007988874</v>
       </c>
       <c r="R37" t="n">
-        <v>1964.709007988879</v>
+        <v>1875.945475280144</v>
       </c>
       <c r="S37" t="n">
-        <v>1774.090048349449</v>
+        <v>1685.326515640713</v>
       </c>
       <c r="T37" t="n">
-        <v>1553.390357452718</v>
+        <v>1464.626824743982</v>
       </c>
       <c r="U37" t="n">
-        <v>1265.354415112105</v>
+        <v>1176.590882403368</v>
       </c>
       <c r="V37" t="n">
-        <v>1265.354415112105</v>
+        <v>922.9733187312243</v>
       </c>
       <c r="W37" t="n">
-        <v>977.0041696088878</v>
+        <v>634.6230732280063</v>
       </c>
       <c r="X37" t="n">
-        <v>750.0815432446138</v>
+        <v>407.7004468637317</v>
       </c>
       <c r="Y37" t="n">
-        <v>530.3558886348271</v>
+        <v>187.9747922539443</v>
       </c>
     </row>
     <row r="38">
@@ -7172,46 +7172,46 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>785.6651881176194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L38" t="n">
-        <v>1236.699401366028</v>
+        <v>1088.893283004706</v>
       </c>
       <c r="M38" t="n">
-        <v>2215.249704195857</v>
+        <v>1622.425187676631</v>
       </c>
       <c r="N38" t="n">
-        <v>3195.001976422504</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O38" t="n">
-        <v>3865.782086996753</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P38" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
         <v>3150.95552873011</v>
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839442</v>
@@ -7257,7 +7257,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7269,22 +7269,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q39" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T39" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7293,10 +7293,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="40">
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.5151678215057</v>
+        <v>788.5151678215061</v>
       </c>
       <c r="C40" t="n">
-        <v>667.028617841672</v>
+        <v>667.0286178416725</v>
       </c>
       <c r="D40" t="n">
-        <v>564.3616113774096</v>
+        <v>564.3616113774101</v>
       </c>
       <c r="E40" t="n">
-        <v>463.8981507430898</v>
+        <v>463.8981507430904</v>
       </c>
       <c r="F40" t="n">
-        <v>364.4578361932528</v>
+        <v>364.4578361932533</v>
       </c>
       <c r="G40" t="n">
-        <v>244.204632516045</v>
+        <v>244.2046325160455</v>
       </c>
       <c r="H40" t="n">
         <v>145.4370786819758</v>
@@ -7336,7 +7336,7 @@
         <v>437.6816203490196</v>
       </c>
       <c r="L40" t="n">
-        <v>800.7468040499223</v>
+        <v>800.7468040499224</v>
       </c>
       <c r="M40" t="n">
         <v>1191.409234901878</v>
@@ -7366,7 +7366,7 @@
         <v>1725.799256195774</v>
       </c>
       <c r="V40" t="n">
-        <v>1518.56440093796</v>
+        <v>1518.564400937961</v>
       </c>
       <c r="W40" t="n">
         <v>1276.596863849073</v>
@@ -7375,7 +7375,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.713999703672</v>
+        <v>922.7139997036725</v>
       </c>
     </row>
     <row r="41">
@@ -7388,19 +7388,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
@@ -7409,25 +7409,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>985.0066235654897</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L41" t="n">
-        <v>1849.525439218844</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M41" t="n">
-        <v>2383.057343890769</v>
+        <v>2047.844055175504</v>
       </c>
       <c r="N41" t="n">
-        <v>3362.809616117416</v>
+        <v>3027.596327402151</v>
       </c>
       <c r="O41" t="n">
-        <v>3865.782086996753</v>
+        <v>3907.560977731605</v>
       </c>
       <c r="P41" t="n">
-        <v>4260.556453353931</v>
+        <v>4302.335344088783</v>
       </c>
       <c r="Q41" t="n">
         <v>4719.034655862919</v>
@@ -7439,16 +7439,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V41" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X41" t="n">
         <v>3150.95552873011</v>
@@ -7464,19 +7464,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G42" t="n">
         <v>205.0702204089889</v>
@@ -7488,10 +7488,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L42" t="n">
         <v>794.2006632320242</v>
@@ -7506,22 +7506,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q42" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S42" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T42" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7530,10 +7530,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="43">
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.5151678215053</v>
+        <v>788.515167821506</v>
       </c>
       <c r="C43" t="n">
-        <v>667.0286178416717</v>
+        <v>667.0286178416724</v>
       </c>
       <c r="D43" t="n">
-        <v>564.3616113774093</v>
+        <v>564.36161137741</v>
       </c>
       <c r="E43" t="n">
-        <v>463.8981507430895</v>
+        <v>463.8981507430904</v>
       </c>
       <c r="F43" t="n">
-        <v>364.4578361932524</v>
+        <v>364.4578361932534</v>
       </c>
       <c r="G43" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160456</v>
       </c>
       <c r="H43" t="n">
-        <v>145.4370786819758</v>
+        <v>145.4370786819757</v>
       </c>
       <c r="I43" t="n">
         <v>95.56103444839442</v>
@@ -7570,10 +7570,10 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K43" t="n">
-        <v>437.6816203490196</v>
+        <v>437.6816203490197</v>
       </c>
       <c r="L43" t="n">
-        <v>800.7468040499224</v>
+        <v>800.7468040499225</v>
       </c>
       <c r="M43" t="n">
         <v>1191.409234901878</v>
@@ -7588,13 +7588,13 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q43" t="n">
-        <v>2328.386548123956</v>
+        <v>2328.386548123957</v>
       </c>
       <c r="R43" t="n">
         <v>2286.005723829558</v>
       </c>
       <c r="S43" t="n">
-        <v>2141.769472604457</v>
+        <v>2141.769472604458</v>
       </c>
       <c r="T43" t="n">
         <v>1967.452490122057</v>
@@ -7612,7 +7612,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.7139997036718</v>
+        <v>922.7139997036725</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
@@ -7646,52 +7646,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>284.4401654074198</v>
+        <v>304.0396960664507</v>
       </c>
       <c r="K44" t="n">
-        <v>702.9183254305503</v>
+        <v>637.8590697562972</v>
       </c>
       <c r="L44" t="n">
-        <v>1153.952538678959</v>
+        <v>1088.893283004706</v>
       </c>
       <c r="M44" t="n">
-        <v>1687.484443350884</v>
+        <v>1622.425187676631</v>
       </c>
       <c r="N44" t="n">
-        <v>2667.236715577531</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O44" t="n">
-        <v>3547.201365906985</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P44" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R44" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="45">
@@ -7701,64 +7701,64 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G45" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q45" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T45" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7767,10 +7767,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="46">
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>788.5151678215053</v>
+        <v>788.5151678215058</v>
       </c>
       <c r="C46" t="n">
-        <v>667.0286178416717</v>
+        <v>667.0286178416721</v>
       </c>
       <c r="D46" t="n">
-        <v>564.3616113774093</v>
+        <v>564.3616113774098</v>
       </c>
       <c r="E46" t="n">
-        <v>463.8981507430895</v>
+        <v>463.89815074309</v>
       </c>
       <c r="F46" t="n">
-        <v>364.4578361932524</v>
+        <v>364.4578361932529</v>
       </c>
       <c r="G46" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160446</v>
       </c>
       <c r="H46" t="n">
         <v>145.4370786819758</v>
@@ -7807,10 +7807,10 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K46" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L46" t="n">
-        <v>800.7468040499225</v>
+        <v>800.7468040499224</v>
       </c>
       <c r="M46" t="n">
         <v>1191.409234901878</v>
@@ -7825,13 +7825,13 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q46" t="n">
-        <v>2328.386548123956</v>
+        <v>2328.386548123957</v>
       </c>
       <c r="R46" t="n">
         <v>2286.005723829558</v>
       </c>
       <c r="S46" t="n">
-        <v>2141.769472604457</v>
+        <v>2141.769472604458</v>
       </c>
       <c r="T46" t="n">
         <v>1967.452490122057</v>
@@ -7849,7 +7849,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y46" t="n">
-        <v>922.7139997036718</v>
+        <v>922.7139997036722</v>
       </c>
     </row>
   </sheetData>
@@ -8064,10 +8064,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050818</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8535,10 +8535,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050805</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516222</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8687,31 +8687,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>60.66917680434261</v>
       </c>
       <c r="M11" t="n">
-        <v>374.1693948021951</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>9.059419880941277e-13</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>353.764234829087</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8945,7 +8945,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>148.4180109385407</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9164,28 +9164,28 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>374.1693948021951</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>292.568571519122</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9410,10 +9410,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>13.98823883547163</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>13.98823883547152</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9474,7 +9474,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>9.059419880941277e-13</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>39.48321557772653</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9647,19 +9647,19 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>201.966409870112</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,10 +9872,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>161.0524397463267</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9890,13 +9890,13 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>60.01894884691986</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,7 +9948,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>-1.428190898877801e-12</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10118,13 +10118,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>426.9983436221929</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>123.4719563470462</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>189.7998007892634</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,16 +10583,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>229.1543674071817</v>
+        <v>163.3991441460108</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10601,10 +10601,10 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>19.79750571619286</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>169.5026663584972</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,28 +11057,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>201.3549853008792</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>170.1140909277309</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11294,10 +11294,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>19.7975057161928</v>
       </c>
       <c r="K44" t="n">
-        <v>85.51392558917576</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>159.0168668068865</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>3.556976973657251</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23434,7 +23434,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>83.02168809391583</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>105.0742887270135</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>73.85778156328863</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590283</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983815</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761693</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>31.95930209741488</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24133,19 +24133,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590283</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>4.968637678199928</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.9321526700474</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761693</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>16.14213605696665</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>111.23826645007</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>71.67627119164565</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590283</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983817</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>16.14213605696597</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24616,10 +24616,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>109.5593187178199</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,28 +24883,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>3.556976973656049</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>138.5093614423943</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,19 +25072,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>53.73645647354638</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
@@ -25093,7 +25093,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>224.5175869543675</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>178.7757248935313</v>
+        <v>178.775724893532</v>
       </c>
       <c r="C37" t="n">
-        <v>166.1905658102218</v>
+        <v>166.1905658102226</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>56.06959750231296</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>145.3777073581639</v>
       </c>
       <c r="F37" t="n">
-        <v>144.3647927345253</v>
+        <v>144.364792734526</v>
       </c>
       <c r="G37" t="n">
-        <v>27.45957241402345</v>
+        <v>164.9695529706229</v>
       </c>
       <c r="H37" t="n">
-        <v>143.6987596259148</v>
+        <v>143.6987596259155</v>
       </c>
       <c r="I37" t="n">
-        <v>95.2961651214321</v>
+        <v>95.29616512143279</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>87.87589738164134</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25369,7 +25369,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>251.081388035422</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>-6.841194405425973e-13</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25801,7 +25801,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>-9.805489753489383e-13</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>970351.8669182695</v>
+        <v>970351.8669182698</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>970351.8669182697</v>
+        <v>970351.8669182699</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>970351.8669182697</v>
+        <v>970351.8669182698</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>970351.8669182697</v>
+        <v>970351.8669182698</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>970351.8669182697</v>
+        <v>970351.8669182698</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>970351.8669182697</v>
+        <v>970351.8669182698</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>970351.8669182698</v>
+        <v>970351.8669182697</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>971077.1076853691</v>
+        <v>971077.1076853686</v>
       </c>
     </row>
     <row r="14">
@@ -26320,40 +26320,40 @@
         <v>451572.9734253559</v>
       </c>
       <c r="E2" t="n">
-        <v>436789.9655756814</v>
+        <v>436789.9655756812</v>
       </c>
       <c r="F2" t="n">
         <v>436789.9655756814</v>
       </c>
       <c r="G2" t="n">
-        <v>436789.9655756815</v>
+        <v>436789.9655756814</v>
       </c>
       <c r="H2" t="n">
         <v>436789.9655756814</v>
       </c>
       <c r="I2" t="n">
+        <v>436789.9655756814</v>
+      </c>
+      <c r="J2" t="n">
+        <v>436789.9655756813</v>
+      </c>
+      <c r="K2" t="n">
         <v>436789.9655756812</v>
       </c>
-      <c r="J2" t="n">
-        <v>436789.9655756814</v>
-      </c>
-      <c r="K2" t="n">
-        <v>436789.9655756814</v>
-      </c>
       <c r="L2" t="n">
-        <v>436789.9655756816</v>
+        <v>436789.9655756815</v>
       </c>
       <c r="M2" t="n">
-        <v>437122.3675939352</v>
+        <v>437122.3675939349</v>
       </c>
       <c r="N2" t="n">
         <v>451572.9734253561</v>
       </c>
       <c r="O2" t="n">
+        <v>451572.9734253561</v>
+      </c>
+      <c r="P2" t="n">
         <v>451572.973425356</v>
-      </c>
-      <c r="P2" t="n">
-        <v>451572.9734253559</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.846656682071625e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934065</v>
+        <v>727377.4139934063</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925932</v>
+        <v>176423.2191925933</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130487.3190696695</v>
+        <v>130487.319069669</v>
       </c>
       <c r="N3" t="n">
-        <v>36735.10506414925</v>
+        <v>36735.10506414982</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>183348.686857128</v>
+      </c>
+      <c r="C4" t="n">
         <v>183348.6868571279</v>
-      </c>
-      <c r="C4" t="n">
-        <v>183348.686857128</v>
       </c>
       <c r="D4" t="n">
         <v>183348.6868571279</v>
       </c>
       <c r="E4" t="n">
+        <v>18148.49231918995</v>
+      </c>
+      <c r="F4" t="n">
         <v>18148.49231918994</v>
       </c>
-      <c r="F4" t="n">
-        <v>18148.49231918985</v>
-      </c>
       <c r="G4" t="n">
-        <v>18148.49231918991</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="H4" t="n">
         <v>18148.49231918995</v>
       </c>
       <c r="I4" t="n">
+        <v>18148.49231918993</v>
+      </c>
+      <c r="J4" t="n">
+        <v>18148.49231918991</v>
+      </c>
+      <c r="K4" t="n">
+        <v>18148.49231918991</v>
+      </c>
+      <c r="L4" t="n">
         <v>18148.49231918994</v>
       </c>
-      <c r="J4" t="n">
-        <v>18148.49231918986</v>
-      </c>
-      <c r="K4" t="n">
-        <v>18148.49231918995</v>
-      </c>
-      <c r="L4" t="n">
-        <v>18148.49231918993</v>
-      </c>
       <c r="M4" t="n">
-        <v>18496.05294811471</v>
+        <v>18496.0529481145</v>
       </c>
       <c r="N4" t="n">
-        <v>33605.65329740894</v>
+        <v>33605.65329740896</v>
       </c>
       <c r="O4" t="n">
-        <v>33605.65329740895</v>
+        <v>33605.653297409</v>
       </c>
       <c r="P4" t="n">
         <v>33605.65329740899</v>
@@ -26473,22 +26473,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.0780634095</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="F5" t="n">
         <v>96383.51825371366</v>
       </c>
-      <c r="F5" t="n">
-        <v>96383.51825371364</v>
-      </c>
       <c r="G5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371367</v>
@@ -26497,10 +26497,10 @@
         <v>96383.51825371367</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
-        <v>96472.31657955465</v>
+        <v>96472.31657955459</v>
       </c>
       <c r="N5" t="n">
         <v>100332.6710141021</v>
@@ -26525,43 +26525,43 @@
         <v>185365.2085048186</v>
       </c>
       <c r="D6" t="n">
-        <v>185365.2085048181</v>
+        <v>185365.2085048185</v>
       </c>
       <c r="E6" t="n">
-        <v>-405119.4589906287</v>
+        <v>-405186.6544808545</v>
       </c>
       <c r="F6" t="n">
-        <v>322257.9550027781</v>
+        <v>322190.7595125519</v>
       </c>
       <c r="G6" t="n">
-        <v>322257.955002778</v>
+        <v>322190.7595125519</v>
       </c>
       <c r="H6" t="n">
-        <v>322257.9550027777</v>
+        <v>322190.7595125522</v>
       </c>
       <c r="I6" t="n">
-        <v>322257.9550027776</v>
+        <v>322190.7595125519</v>
       </c>
       <c r="J6" t="n">
-        <v>145834.7358101846</v>
+        <v>145767.5403199586</v>
       </c>
       <c r="K6" t="n">
-        <v>322257.9550027777</v>
+        <v>322190.7595125519</v>
       </c>
       <c r="L6" t="n">
-        <v>322257.955002778</v>
+        <v>322190.7595125524</v>
       </c>
       <c r="M6" t="n">
-        <v>191666.6789965963</v>
+        <v>191600.9944246358</v>
       </c>
       <c r="N6" t="n">
-        <v>280899.5440496958</v>
+        <v>280899.5440496952</v>
       </c>
       <c r="O6" t="n">
         <v>317634.649113845</v>
       </c>
       <c r="P6" t="n">
-        <v>317634.6491138448</v>
+        <v>317634.6491138449</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.056255288405996</v>
+        <v>1.056255288405295</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.743664217087</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26759,10 +26759,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="J3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="K3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="L3" t="n">
         <v>1089.776700593298</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545561</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.056255288405996</v>
+        <v>1.056255288405295</v>
       </c>
       <c r="N2" t="n">
-        <v>45.91888133018656</v>
+        <v>45.91888133018728</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762114</v>
+        <v>712.0330363762113</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503742</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503742</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,19 +27385,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>5.228070781216786</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,22 +27424,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>260.8670049258785</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>150.0902543534223</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,7 +27546,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,19 +27582,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>28.31325977179802</v>
       </c>
     </row>
     <row r="5">
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>206.5745667407363</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>230.3177981997422</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,16 +27783,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>111.9752872372391</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,7 +27825,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27834,10 +27834,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>282.270397108668</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>290.3407779398149</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>79.10991927840013</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,16 +27898,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481162</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28014,7 +28014,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,28 +28053,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491425</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>37.92939363921496</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>22.54869530067472</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28509,7 +28509,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>-5.767705417405354e-12</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -29278,7 +29278,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-1.736439038534721e-12</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29989,7 +29989,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.056255288405996</v>
+        <v>1.056255288405295</v>
       </c>
       <c r="C37" t="n">
-        <v>1.056255288405996</v>
+        <v>1.056255288405295</v>
       </c>
       <c r="D37" t="n">
-        <v>1.056255288405996</v>
+        <v>1.056255288405295</v>
       </c>
       <c r="E37" t="n">
-        <v>1.056255288405996</v>
+        <v>1.056255288405295</v>
       </c>
       <c r="F37" t="n">
-        <v>1.056255288405996</v>
+        <v>1.056255288405295</v>
       </c>
       <c r="G37" t="n">
-        <v>1.056255288405996</v>
+        <v>1.056255288405295</v>
       </c>
       <c r="H37" t="n">
-        <v>1.056255288405996</v>
+        <v>1.056255288405295</v>
       </c>
       <c r="I37" t="n">
-        <v>1.056255288405996</v>
+        <v>1.056255288405295</v>
       </c>
       <c r="J37" t="n">
-        <v>1.056255288405996</v>
+        <v>1.056255288405295</v>
       </c>
       <c r="K37" t="n">
-        <v>1.056255288405996</v>
+        <v>1.056255288405295</v>
       </c>
       <c r="L37" t="n">
-        <v>1.056255288405996</v>
+        <v>1.056255288405295</v>
       </c>
       <c r="M37" t="n">
-        <v>1.056255288405996</v>
+        <v>1.056255288405295</v>
       </c>
       <c r="N37" t="n">
-        <v>1.056255288405996</v>
+        <v>1.056255288405295</v>
       </c>
       <c r="O37" t="n">
-        <v>1.056255288405996</v>
+        <v>1.056255288405295</v>
       </c>
       <c r="P37" t="n">
-        <v>1.056255288405996</v>
+        <v>1.056255288405295</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.056255288405996</v>
+        <v>1.056255288405295</v>
       </c>
       <c r="R37" t="n">
-        <v>1.056255288405996</v>
+        <v>1.056255288405295</v>
       </c>
       <c r="S37" t="n">
-        <v>1.056255288405996</v>
+        <v>1.056255288405295</v>
       </c>
       <c r="T37" t="n">
-        <v>1.056255288405996</v>
+        <v>1.056255288405295</v>
       </c>
       <c r="U37" t="n">
-        <v>1.056255288405996</v>
+        <v>1.056255288405295</v>
       </c>
       <c r="V37" t="n">
-        <v>1.056255288405996</v>
+        <v>1.056255288405295</v>
       </c>
       <c r="W37" t="n">
-        <v>1.056255288405996</v>
+        <v>1.056255288405295</v>
       </c>
       <c r="X37" t="n">
-        <v>1.056255288405996</v>
+        <v>1.056255288405295</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.056255288405996</v>
+        <v>1.056255288405295</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340047</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554472</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727437</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081579</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630672</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338307</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119868</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954669</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044139</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633806</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727386</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473559</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472037</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141116</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188921</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890692</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396483</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478009</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983124</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923049</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479579</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034986</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131474</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372668</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619158</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078616</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644448</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492007</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813582</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302246</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246925</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917251</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175852</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383808</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678013</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695337</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197226</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315613</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I26" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T26" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U26" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H27" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R27" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,43 +33096,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J28" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K28" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M28" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P28" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q28" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U28" t="n">
         <v>0.1071911508780295</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I29" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T29" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U29" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H30" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970236</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R30" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,43 +33333,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J31" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K31" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M31" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P31" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q31" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U31" t="n">
         <v>0.1071911508780295</v>
@@ -33755,7 +33755,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33983,7 +33983,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
         <v>557.708647897025</v>
@@ -34229,7 +34229,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34463,7 +34463,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
         <v>299.2156706987487</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,16 +34784,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35012,13 +35012,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730084</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,25 +35173,25 @@
         <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343421</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435304</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492239</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530454</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.93761631168</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898691</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770697</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730072</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.441326826294</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.58174042459</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735648</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137342</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713961</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535657</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458881</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
         <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873156</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427826</v>
+        <v>516.2592911966746</v>
       </c>
       <c r="M11" t="n">
-        <v>913.0905106324219</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35586,7 +35586,7 @@
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,28 +35647,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>809.3543492214189</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509644</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636241</v>
+        <v>399.2123157422602</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>206.047659544312</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35817,13 +35817,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,28 +35884,28 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>913.0905106324219</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>800.6215724073411</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306616</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
         <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>344.85694616754</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789359</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36130,10 +36130,10 @@
         <v>988.434649323059</v>
       </c>
       <c r="N20" t="n">
-        <v>566.2900742483829</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>522.0412397236905</v>
       </c>
       <c r="P20" t="n">
         <v>720.5606943908542</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306612</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
         <v>206.0476595443195</v>
@@ -36285,10 +36285,10 @@
         <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
         <v>302.3531302226397</v>
@@ -36297,7 +36297,7 @@
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789356</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>230.270216546439</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509644</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636241</v>
+        <v>452.7607146738314</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306613</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
         <v>206.0476595443195</v>
@@ -36522,19 +36522,19 @@
         <v>319.7573721701981</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N25" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789356</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>351.8394407150395</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265655</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>988.4346493230595</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248959</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R26" t="n">
-        <v>119.6321473891446</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306628</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L28" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M28" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N28" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P28" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407865</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427828</v>
       </c>
       <c r="M29" t="n">
-        <v>965.9194594524197</v>
+        <v>988.4346493230595</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>675.7737917599579</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636244</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525793</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306628</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L31" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M31" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N31" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P31" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>526.9910873446639</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37303,16 +37303,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>684.7444817995139</v>
+        <v>618.9892585383429</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N35" t="n">
         <v>989.6487598248956</v>
@@ -37321,10 +37321,10 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
         <v>125.3296184152072</v>
@@ -37403,7 +37403,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>46.63467190147222</v>
+        <v>46.63467190147152</v>
       </c>
       <c r="K37" t="n">
-        <v>207.1039148327256</v>
+        <v>207.1039148327249</v>
       </c>
       <c r="L37" t="n">
-        <v>320.8136274586041</v>
+        <v>320.8136274586034</v>
       </c>
       <c r="M37" t="n">
-        <v>348.6896346818899</v>
+        <v>348.6896346818891</v>
       </c>
       <c r="N37" t="n">
-        <v>345.9132014559461</v>
+        <v>345.9132014559453</v>
       </c>
       <c r="O37" t="n">
-        <v>303.4093855110458</v>
+        <v>303.4093855110451</v>
       </c>
       <c r="P37" t="n">
-        <v>236.0133264335164</v>
+        <v>236.0133264335157</v>
       </c>
       <c r="Q37" t="n">
-        <v>79.45049382629965</v>
+        <v>79.45049382629895</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>475.387620108525</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>677.5556672467163</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37631,7 +37631,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
         <v>415.1124034525806</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165878</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
@@ -37777,28 +37777,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>538.5462718562796</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N41" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>420.9083957314504</v>
       </c>
       <c r="R41" t="n">
         <v>59.61319854222478</v>
@@ -37877,7 +37877,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165878</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
@@ -37947,7 +37947,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O43" t="n">
         <v>349.3282668412323</v>
@@ -38014,10 +38014,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>210.5845066849054</v>
       </c>
       <c r="K44" t="n">
-        <v>422.7052121445763</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
         <v>455.5901143923322</v>
@@ -38038,7 +38038,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38111,7 +38111,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
         <v>159.2338966127272</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165878</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
